--- a/MC_Sim_dist.xlsx
+++ b/MC_Sim_dist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12038\Project-1-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{081A90C3-4950-440B-A00A-3B8CD005EFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643C7E38-374C-4CAD-B8E1-8D8F6C06172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0085C168-B772-4CF0-AA2C-6032666F2D65}"/>
+    <workbookView minimized="1" xWindow="2820" yWindow="3730" windowWidth="10590" windowHeight="5040" xr2:uid="{0085C168-B772-4CF0-AA2C-6032666F2D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,9 +89,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF54EB6-985D-4757-870E-7F3234585788}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,62 +427,152 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>92</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.54117647058823526</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="1">
+        <f>ROUND(C2,4)</f>
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>44</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.25882352941176473</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D6" si="0">ROUND(C3,4)</f>
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="L3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.14705882352941177</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>4.1176470588235294E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="L5">
+        <f>SUM(L2:L4)</f>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>1-SUM(D2:D5)</f>
+        <v>1.1699999999999933E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.17E-2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f>SUM(D2:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J8">
+        <v>5.4117999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <v>0.25881999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J10">
+        <v>0.14706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <f>J7-J8-J9-J10</f>
+        <v>0.54000200000000009</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>